--- a/surgeon_schedule_h1_cc.xlsx
+++ b/surgeon_schedule_h1_cc.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,27 +424,7 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>外科医194</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>外科医294</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>外科医372</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>外科医279</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>外科医301</t>
+          <t>外科医199</t>
         </is>
       </c>
     </row>
@@ -455,387 +435,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.056992</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+        <v>16.578942184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>手術2141</t>
+          <t>手術8808</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>55.709372</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>手術3392</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35.056992</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>手術8471</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>31.914499</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>手術6199</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>72</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>55.155054</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>手術36882</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
